--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277951.934179392</v>
+        <v>1275699.854468184</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145775</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.7793708383997</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.7518877339018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.90969376287498</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>163.5358524338122</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>68.8500543646704</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986287</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.17988875728713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.72336853884049</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472922</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936219</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389242</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605716619</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4528,10 +4528,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2235.550262878909</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>568.8195860594217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>561.8740853102182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>146.8016351552147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2235.550262878909</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,13 +4814,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3160.418091878048</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2807.649436607934</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913854</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687882</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845472</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171314</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>733.4550657171314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>733.4550657171314</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E19" t="n">
-        <v>585.5419721347383</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588919</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473712</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,13 +5768,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597628</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
         <v>407.9027098310023</v>
@@ -5896,16 +5896,16 @@
         <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,28 +5975,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,13 +6005,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492579</v>
@@ -6020,7 +6020,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273909</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273909</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E25" t="n">
         <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,19 +6364,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6488,13 +6488,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6646,25 +6646,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6953,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393159</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>119.4047645948077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.69767948409076</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067394</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294722</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172146</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.4596884482327</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.3568737779</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737779</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26329,31 +26329,31 @@
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140038</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26482,10 +26482,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26528,40 +26528,40 @@
         <v>291287.3345089704</v>
       </c>
       <c r="E6" t="n">
-        <v>43536.21610588627</v>
+        <v>43501.47818045061</v>
       </c>
       <c r="F6" t="n">
-        <v>368948.6779132416</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="G6" t="n">
-        <v>368948.6779132412</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="H6" t="n">
-        <v>368948.6779132416</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="I6" t="n">
-        <v>368948.6779132417</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="J6" t="n">
-        <v>151417.475515964</v>
+        <v>151382.7375905282</v>
       </c>
       <c r="K6" t="n">
-        <v>368948.6779132414</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="L6" t="n">
-        <v>368948.6779132415</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="M6" t="n">
-        <v>283893.6499777298</v>
+        <v>283858.9120522944</v>
       </c>
       <c r="N6" t="n">
-        <v>368948.6779132416</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="O6" t="n">
-        <v>368948.6779132416</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="P6" t="n">
-        <v>368948.6779132414</v>
+        <v>368913.9399878058</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,13 +26796,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,10 +26972,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414761</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>32.80528251369512</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5210040371057</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.6980706244454</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.09653893143599</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>164.2164060363227</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>183.2875889591576</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>465.217062384076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>322.6208179396315</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627482993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>259.5635423156791</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
